--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H2">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I2">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J2">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N2">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O2">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P2">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q2">
-        <v>42.55139051846616</v>
+        <v>85.14564570352601</v>
       </c>
       <c r="R2">
-        <v>42.55139051846616</v>
+        <v>766.310811331734</v>
       </c>
       <c r="S2">
-        <v>0.07788484839007688</v>
+        <v>0.09733849559201428</v>
       </c>
       <c r="T2">
-        <v>0.07788484839007688</v>
+        <v>0.0976230701137835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H3">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I3">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J3">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N3">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O3">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P3">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q3">
-        <v>48.04397431596479</v>
+        <v>59.73069887891668</v>
       </c>
       <c r="R3">
-        <v>48.04397431596479</v>
+        <v>537.57628991025</v>
       </c>
       <c r="S3">
-        <v>0.08793831670510939</v>
+        <v>0.06828413034505407</v>
       </c>
       <c r="T3">
-        <v>0.08793831670510939</v>
+        <v>0.06848376280926245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H4">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I4">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J4">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N4">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O4">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P4">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q4">
-        <v>61.44909385358375</v>
+        <v>111.7355593820407</v>
       </c>
       <c r="R4">
-        <v>61.44909385358375</v>
+        <v>1005.620034438366</v>
       </c>
       <c r="S4">
-        <v>0.1124746641691298</v>
+        <v>0.12773608285561</v>
       </c>
       <c r="T4">
-        <v>0.1124746641691298</v>
+        <v>0.1281095264194357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H5">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I5">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J5">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N5">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O5">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P5">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q5">
-        <v>69.38101554071862</v>
+        <v>78.38384448636111</v>
       </c>
       <c r="R5">
-        <v>69.38101554071862</v>
+        <v>705.45460037725</v>
       </c>
       <c r="S5">
-        <v>0.1269930268011656</v>
+        <v>0.08960840496280167</v>
       </c>
       <c r="T5">
-        <v>0.1269930268011656</v>
+        <v>0.089870380133403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H6">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I6">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J6">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N6">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O6">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P6">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q6">
-        <v>64.76607192736566</v>
+        <v>161.969778524366</v>
       </c>
       <c r="R6">
-        <v>64.76607192736566</v>
+        <v>1457.728006719294</v>
       </c>
       <c r="S6">
-        <v>0.1185459659818778</v>
+        <v>0.1851638382992571</v>
       </c>
       <c r="T6">
-        <v>0.1185459659818778</v>
+        <v>0.1857051751096576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H7">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I7">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J7">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N7">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O7">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P7">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q7">
-        <v>73.12615306599497</v>
+        <v>113.6237559605833</v>
       </c>
       <c r="R7">
-        <v>73.12615306599497</v>
+        <v>1022.61380364525</v>
       </c>
       <c r="S7">
-        <v>0.1338480194301269</v>
+        <v>0.1298946690383644</v>
       </c>
       <c r="T7">
-        <v>0.1338480194301269</v>
+        <v>0.1302744233493094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H8">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I8">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J8">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N8">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O8">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P8">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q8">
-        <v>85.29818890891711</v>
+        <v>150.747496621322</v>
       </c>
       <c r="R8">
-        <v>85.29818890891711</v>
+        <v>1356.727469591898</v>
       </c>
       <c r="S8">
-        <v>0.1561273657610807</v>
+        <v>0.1723345264944545</v>
       </c>
       <c r="T8">
-        <v>0.1561273657610807</v>
+        <v>0.1728383560961266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.328016970482</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H9">
-        <v>39.328016970482</v>
+        <v>119.406669</v>
       </c>
       <c r="I9">
-        <v>0.3324078364871638</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J9">
-        <v>0.3324078364871638</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N9">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O9">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P9">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q9">
-        <v>96.30857998306489</v>
+        <v>105.7511896590833</v>
       </c>
       <c r="R9">
-        <v>96.30857998306489</v>
+        <v>951.7607069317501</v>
       </c>
       <c r="S9">
-        <v>0.1762804707260831</v>
+        <v>0.1208947518505303</v>
       </c>
       <c r="T9">
-        <v>0.1762804707260831</v>
+        <v>0.1212481944015276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H10">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I10">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J10">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N10">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O10">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P10">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q10">
-        <v>2.542288519679263</v>
+        <v>4.495806233439001</v>
       </c>
       <c r="R10">
-        <v>2.542288519679263</v>
+        <v>26.974837400634</v>
       </c>
       <c r="S10">
-        <v>0.004653332206220692</v>
+        <v>0.005139605338832143</v>
       </c>
       <c r="T10">
-        <v>0.004653332206220692</v>
+        <v>0.003436420841164441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17216047989684</v>
+        <v>1.1870385</v>
       </c>
       <c r="H11">
-        <v>1.17216047989684</v>
+        <v>2.374077</v>
       </c>
       <c r="I11">
-        <v>0.009907322035349725</v>
+        <v>0.008745100561913671</v>
       </c>
       <c r="J11">
-        <v>0.009907322035349725</v>
+        <v>0.005847111567493934</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N11">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O11">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P11">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q11">
-        <v>2.87045012759892</v>
+        <v>3.153862374625</v>
       </c>
       <c r="R11">
-        <v>2.87045012759892</v>
+        <v>18.92317424775</v>
       </c>
       <c r="S11">
-        <v>0.005253989829129033</v>
+        <v>0.003605495223081528</v>
       </c>
       <c r="T11">
-        <v>0.005253989829129033</v>
+        <v>0.002410690726329493</v>
       </c>
     </row>
   </sheetData>
